--- a/biology/Botanique/Ficus_sycomorus/Ficus_sycomorus.xlsx
+++ b/biology/Botanique/Ficus_sycomorus/Ficus_sycomorus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ficus sycomorus
 Le figuier sycomore ou sycamore (Ficus sycomorus) est une espèce de plantes à fleurs de la famille des moracées. C'est un arbre trouvé en Afrique. 
@@ -512,7 +524,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cultivé en Égypte depuis le troisième millénaire avant Jésus-Christ, le figuier sycomore est originaire d’Afrique subsaharienne où on le trouve du Sénégal au Nord‑Est de l'Afrique du Sud, à l'exclusion des régions de forêt tropicale humide. Il pousse spontanément dans la péninsule Arabique et dans certaines régions de Madagascar. Il a été naturalisé en Palestine et en Égypte. Dans Keraban le têtu, Jules Verne le décrit comme poussant au sud de la Mer Noire. Dans son habitat d’origine, l’arbre pousse généralement sur des sols riches, le long des rivières et dans les forêts mixtes.
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ficus sycomorus peut mesurer jusqu'à 20 m de haut et 6 m de large avec une couronne assez dense.
 L'écorce est jaune-vert et s'exfolie en bandes laissant apparaître une écorce intérieure jaunâtre. Comme tous les figuiers, le sycomore contient du latex.
@@ -578,7 +594,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ficus sycomorus a un port étalé donnant une ombre appréciée dans les pays chauds.
 Son bois peut servir de combustible et le frottement de deux branches permet d'allumer un feu.
@@ -611,7 +629,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Certains cercueils de momies en Égypte étaient faits de son bois. Le Livre d'Amos (7:14) se réfère à son fruit. A Jéricho, Zachée monte sur un figuier sycomore pour voir passer Jésus (Évangile selon Luc - 19:4).
 </t>
@@ -642,7 +662,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le figuier sycomore se propage bien par bouture classique ou même par large tronçon.
 </t>
